--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/17/word_level_predictions_17.xlsx
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G99" s="2" t="b">
@@ -5581,11 +5581,11 @@
         </is>
       </c>
       <c r="I99" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K99" s="2" t="b">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5633,11 +5633,11 @@
         </is>
       </c>
       <c r="I100" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K100" s="2" t="b">
@@ -5685,11 +5685,11 @@
         </is>
       </c>
       <c r="I101" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K101" s="2" t="b">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G102" s="2" t="b">
@@ -5737,11 +5737,11 @@
         </is>
       </c>
       <c r="I102" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K102" s="2" t="b">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G125" t="b">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7782,104 +7782,104 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" t="n">
         <v>6</v>
       </c>
-      <c r="B142" s="2" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C142" s="2" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>Solution:</t>
         </is>
       </c>
-      <c r="D142" s="2" t="n">
+      <c r="D142" t="n">
         <v>2</v>
       </c>
-      <c r="E142" s="2" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" t="n">
         <v>6</v>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C143" s="2" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="D143" s="2" t="n">
+      <c r="D143" t="n">
         <v>3</v>
       </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/17/word_level_predictions_17.xlsx
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G99" s="2" t="b">
@@ -5581,11 +5581,11 @@
         </is>
       </c>
       <c r="I99" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K99" s="2" t="b">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5633,11 +5633,11 @@
         </is>
       </c>
       <c r="I100" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K100" s="2" t="b">
@@ -5685,11 +5685,11 @@
         </is>
       </c>
       <c r="I101" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K101" s="2" t="b">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G102" s="2" t="b">
@@ -5737,11 +5737,11 @@
         </is>
       </c>
       <c r="I102" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K102" s="2" t="b">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G125" t="b">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -7782,104 +7782,104 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr">
         <is>
           <t>Solution:</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E142" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
